--- a/data/trans_dic/P69$nervioso-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P69$nervioso-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.387033384967888</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.494058364059391</v>
+        <v>0.4940583640593909</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.4714133255501476</v>
@@ -685,7 +685,7 @@
         <v>0.5671661411686241</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.6410172492324525</v>
+        <v>0.6410172492324527</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4378979896937773</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3036924174502449</v>
+        <v>0.3067567979341498</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.328831806859906</v>
+        <v>0.3321342126304593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2724332655260728</v>
+        <v>0.2771786562610078</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3595083727439594</v>
+        <v>0.3501785392684664</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3240507665882608</v>
+        <v>0.3169863372961911</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3972399609175798</v>
+        <v>0.4130511003855784</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4460852462793505</v>
+        <v>0.4466735498275005</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5328481978826718</v>
+        <v>0.5279917947665375</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.341882419937326</v>
+        <v>0.3566548207035348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3995063867345497</v>
+        <v>0.405577154273249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3837395706843348</v>
+        <v>0.381469091486425</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4809497711948326</v>
+        <v>0.4776841656343915</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5359416725421395</v>
+        <v>0.5311363139773241</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5597139504627261</v>
+        <v>0.5680821034658861</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.49962971487411</v>
+        <v>0.5021310168970333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6328237376429542</v>
+        <v>0.6292898392338608</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6272536901258723</v>
+        <v>0.6259096715705743</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.645637586555612</v>
+        <v>0.6614120351022692</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6833757690435344</v>
+        <v>0.6881707271324238</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7414722257291272</v>
+        <v>0.7361660009601679</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.524799290018429</v>
+        <v>0.5286385137208032</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5667563775936536</v>
+        <v>0.570264761533151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5456890642670508</v>
+        <v>0.5506378764274845</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6562383931510104</v>
+        <v>0.6569920453470931</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3705276439054395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5726140545357205</v>
+        <v>0.5726140545357206</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4304372475801411</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2986808289587881</v>
+        <v>0.3021863027104707</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3342797354071237</v>
+        <v>0.329216446010911</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2853833645596143</v>
+        <v>0.2773349784033924</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4699562119672861</v>
+        <v>0.4796193485849389</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3137139500401687</v>
+        <v>0.3134095722937693</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4316493854785722</v>
+        <v>0.4352321893381937</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5071466569978951</v>
+        <v>0.5096637124578992</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5468948787866983</v>
+        <v>0.54125878961792</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3354644801999501</v>
+        <v>0.330383516036708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4007159486570432</v>
+        <v>0.3949585811306593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3925684376901908</v>
+        <v>0.378993987598043</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5276772381063989</v>
+        <v>0.5290749409143206</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.454448909391853</v>
+        <v>0.4580086285121875</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5528318550397606</v>
+        <v>0.5422266016255093</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4725161662095544</v>
+        <v>0.4746073348377969</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6694584370077034</v>
+        <v>0.6655624128614548</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5678883835663421</v>
+        <v>0.5539511282953115</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6886620873594923</v>
+        <v>0.7214494042208056</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7468494572724658</v>
+        <v>0.7468000371184121</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7134666273709803</v>
+        <v>0.7163568063578981</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4663749727268793</v>
+        <v>0.4606473601694651</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5709704207157198</v>
+        <v>0.5639962434685261</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5450201251219188</v>
+        <v>0.5365302051198659</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6648706232977175</v>
+        <v>0.6645404531826169</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4719115035247394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6476196948208012</v>
+        <v>0.6476196948208014</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5959790048166027</v>
@@ -957,7 +957,7 @@
         <v>0.6404486605526383</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.6528829096934047</v>
+        <v>0.6528829096934048</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.5006206595617592</v>
@@ -969,7 +969,7 @@
         <v>0.5298880900586348</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.650220915293794</v>
+        <v>0.6502209152937939</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3637197271879106</v>
+        <v>0.3618602366975435</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4208498766301138</v>
+        <v>0.4276120181844281</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3684681056054437</v>
+        <v>0.3629647114577896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5317024508338593</v>
+        <v>0.545444142720011</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4877124279223891</v>
+        <v>0.4826120486135065</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4460884914467362</v>
+        <v>0.4699208647042092</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.493696352107465</v>
+        <v>0.4799158707606707</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5768864332451149</v>
+        <v>0.5741509584852268</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.433235756295852</v>
+        <v>0.4296325324633858</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4678482011521342</v>
+        <v>0.465145076905197</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4425606984293117</v>
+        <v>0.4465204056298802</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5708950868429831</v>
+        <v>0.5850682017782579</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5320291875411038</v>
+        <v>0.532750117040063</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6205880377906248</v>
+        <v>0.6161418145285533</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5786839660402129</v>
+        <v>0.5871708209762875</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7478940629526433</v>
+        <v>0.744150990349103</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6995110694029008</v>
+        <v>0.6990976294477609</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.7516098668271531</v>
+        <v>0.7641187993685179</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7767018867283174</v>
+        <v>0.7554640221184932</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7321059292171508</v>
+        <v>0.7324627594344907</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5631248945521965</v>
+        <v>0.5691259575057181</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6311565029607107</v>
+        <v>0.631129695955993</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6142801884007852</v>
+        <v>0.6116854945818812</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.7159347823549552</v>
+        <v>0.7168080094640928</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5251521760174518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7333069532640175</v>
+        <v>0.7333069532640176</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5429206777915012</v>
@@ -1105,7 +1105,7 @@
         <v>0.5533641703525558</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.7582556285813584</v>
+        <v>0.7582556285813582</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4253190777872404</v>
+        <v>0.4201064233000647</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3280547473218099</v>
+        <v>0.3260134079733225</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3849918334604564</v>
+        <v>0.3916996189368055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6107078423905196</v>
+        <v>0.6176832157852755</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3750696975676468</v>
+        <v>0.3525846830955888</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4295172198786296</v>
+        <v>0.4304101810005465</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.4303080069974683</v>
+        <v>0.4407273185574074</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7054406137497095</v>
+        <v>0.7074884087564952</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4431247848829703</v>
+        <v>0.4351051463940414</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4241779925886558</v>
+        <v>0.4270742198304947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4524503395264355</v>
+        <v>0.4405917934472382</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.681056154749815</v>
+        <v>0.6849911206105175</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6628859968727198</v>
+        <v>0.6694742870069051</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6138814622622177</v>
+        <v>0.6121421113801985</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6537030494593854</v>
+        <v>0.6588456339789001</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8201871234225548</v>
+        <v>0.8280862631126574</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7002495277126159</v>
+        <v>0.715214208719048</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7700801254391293</v>
+        <v>0.7586359910784483</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.737462545008843</v>
+        <v>0.7616507327942128</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8530231540146656</v>
+        <v>0.8640769890771094</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6446178193943971</v>
+        <v>0.6334297328714166</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.6529507392021084</v>
+        <v>0.6473311491301433</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6439776826887099</v>
+        <v>0.6536671853069314</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.814327323822161</v>
+        <v>0.8197588912090766</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.4972785932296829</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6476103121706671</v>
+        <v>0.647610312170667</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.409108526693915</v>
+        <v>0.4103240435007243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3741422770207322</v>
+        <v>0.3742853614691275</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.561406170115745</v>
+        <v>0.5609482023121865</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4981352463488734</v>
+        <v>0.4976043203215</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6344118884891821</v>
+        <v>0.6335426424061905</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4675164364231237</v>
+        <v>0.4650983370472094</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4529801789636654</v>
+        <v>0.4517255557146381</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6109083304527325</v>
+        <v>0.6078486093178744</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.522843344339563</v>
+        <v>0.5187344260557682</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4825775370772888</v>
+        <v>0.4903815162584344</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.679641015436336</v>
+        <v>0.6730419435000292</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6448932350354463</v>
+        <v>0.6408283625869857</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7228051665963442</v>
+        <v>0.7240325888120923</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.556393564274286</v>
+        <v>0.5539127485438228</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5403138673688946</v>
+        <v>0.541842842873104</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6820153725797535</v>
+        <v>0.6820494460783771</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>25627</v>
+        <v>25886</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>26975</v>
+        <v>27246</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>22610</v>
+        <v>23004</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>20931</v>
+        <v>20388</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14734</v>
+        <v>14412</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>27902</v>
+        <v>29012</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>28231</v>
+        <v>28268</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>30940</v>
+        <v>30658</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>44394</v>
+        <v>46312</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>60833</v>
+        <v>61758</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>56132</v>
+        <v>55800</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>55929</v>
+        <v>55549</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45225</v>
+        <v>44820</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45914</v>
+        <v>46601</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41465</v>
+        <v>41673</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>36844</v>
+        <v>36639</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>28519</v>
+        <v>28458</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>45349</v>
+        <v>46457</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>43247</v>
+        <v>43551</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>43054</v>
+        <v>42746</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>68146</v>
+        <v>68645</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>86301</v>
+        <v>86835</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>79821</v>
+        <v>80545</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>76313</v>
+        <v>76400</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>51516</v>
+        <v>52120</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29404</v>
+        <v>28958</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31371</v>
+        <v>30486</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>59732</v>
+        <v>60961</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20545</v>
+        <v>20525</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26825</v>
+        <v>27048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>30501</v>
+        <v>30652</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>57241</v>
+        <v>56651</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>79829</v>
+        <v>78620</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>60149</v>
+        <v>59285</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>66763</v>
+        <v>64454</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>122299</v>
+        <v>122623</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>78382</v>
+        <v>78996</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48628</v>
+        <v>47695</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>51941</v>
+        <v>52171</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>85090</v>
+        <v>84594</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>37190</v>
+        <v>36278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>42797</v>
+        <v>44834</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>44917</v>
+        <v>44914</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>74676</v>
+        <v>74978</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>110982</v>
+        <v>109619</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>85706</v>
+        <v>84659</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>92690</v>
+        <v>91246</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>154096</v>
+        <v>154019</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>53425</v>
+        <v>53152</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45487</v>
+        <v>46218</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>32467</v>
+        <v>31982</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>51384</v>
+        <v>52712</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>37936</v>
+        <v>37539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19552</v>
+        <v>20597</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>22812</v>
+        <v>22175</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>54477</v>
+        <v>54219</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>97334</v>
+        <v>96525</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>71073</v>
+        <v>70662</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>59444</v>
+        <v>59976</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>109083</v>
+        <v>111791</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78147</v>
+        <v>78253</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>67076</v>
+        <v>66595</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>50990</v>
+        <v>51738</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>72276</v>
+        <v>71915</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>54410</v>
+        <v>54378</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32943</v>
+        <v>33491</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>35888</v>
+        <v>34907</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>69135</v>
+        <v>69169</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>126516</v>
+        <v>127864</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>95882</v>
+        <v>95877</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>82510</v>
+        <v>82161</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>136796</v>
+        <v>136963</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28809</v>
+        <v>28456</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15428</v>
+        <v>15332</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25465</v>
+        <v>25909</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>60138</v>
+        <v>60825</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11770</v>
+        <v>11065</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>16577</v>
+        <v>16612</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20081</v>
+        <v>20567</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>57744</v>
+        <v>57911</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>43922</v>
+        <v>43127</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>36319</v>
+        <v>36567</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>51041</v>
+        <v>49703</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>122813</v>
+        <v>123522</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>44901</v>
+        <v>45348</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>28870</v>
+        <v>28788</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>43239</v>
+        <v>43579</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>80765</v>
+        <v>81543</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21975</v>
+        <v>22445</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29721</v>
+        <v>29280</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>34414</v>
+        <v>35543</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>69824</v>
+        <v>70729</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>63893</v>
+        <v>62784</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>55907</v>
+        <v>55426</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>72647</v>
+        <v>73740</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>146845</v>
+        <v>147825</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>133003</v>
+        <v>133398</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>129893</v>
+        <v>129943</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>213579</v>
+        <v>213404</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>107004</v>
+        <v>106890</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>215078</v>
+        <v>214784</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>252418</v>
+        <v>251113</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>255242</v>
+        <v>254535</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>439521</v>
+        <v>437320</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>169979</v>
+        <v>168643</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>167539</v>
+        <v>170248</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>258559</v>
+        <v>256049</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>138529</v>
+        <v>137656</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>245045</v>
+        <v>245462</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>300404</v>
+        <v>299065</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>304452</v>
+        <v>305314</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>490679</v>
+        <v>490704</v>
       </c>
     </row>
     <row r="24">
